--- a/raw_data/20200818_saline/20200818_Sensor0_Test_25.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_25.xlsx
@@ -1,1067 +1,1483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FAA2DF-0973-4733-BF81-F677396869DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>21602.868739</v>
+        <v>21602.868739000001</v>
       </c>
       <c r="B2" s="1">
-        <v>6.000797</v>
+        <v>6.0007970000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>899.600000</v>
+        <v>899.6</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.897000</v>
+        <v>-194.89699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21613.297163</v>
+        <v>21613.297162999999</v>
       </c>
       <c r="G2" s="1">
-        <v>6.003694</v>
+        <v>6.0036940000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>916.415000</v>
+        <v>916.41499999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.348000</v>
+        <v>-165.34800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>21623.715095</v>
       </c>
       <c r="L2" s="1">
-        <v>6.006588</v>
+        <v>6.0065879999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>938.816000</v>
+        <v>938.81600000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.873000</v>
+        <v>-118.873</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>21634.222346</v>
+        <v>21634.222345999999</v>
       </c>
       <c r="Q2" s="1">
         <v>6.009506</v>
       </c>
       <c r="R2" s="1">
-        <v>945.450000</v>
+        <v>945.45</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.487000</v>
+        <v>-103.48699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>21645.141307</v>
+        <v>21645.141307000002</v>
       </c>
       <c r="V2" s="1">
-        <v>6.012539</v>
+        <v>6.0125390000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>952.041000</v>
+        <v>952.04100000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.909700</v>
+        <v>-89.909700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>21655.524557</v>
+        <v>21655.524557000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.015423</v>
+        <v>6.0154230000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.194000</v>
+        <v>959.19399999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.572000</v>
+        <v>-80.572000000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>21666.069473</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.018353</v>
+        <v>6.0183530000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.188000</v>
+        <v>964.18799999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.331900</v>
+        <v>-80.331900000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>21676.497864</v>
+        <v>21676.497864000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.021249</v>
+        <v>6.0212490000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.175000</v>
+        <v>972.17499999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.262500</v>
+        <v>-88.262500000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>21687.055701</v>
+        <v>21687.055701000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.024182</v>
+        <v>6.0241819999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.476000</v>
+        <v>981.476</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.404000</v>
+        <v>-103.404</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>21698.379365</v>
+        <v>21698.379365000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.027328</v>
+        <v>6.0273279999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.047000</v>
+        <v>993.04700000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.202000</v>
+        <v>-125.202</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>21709.179750</v>
+        <v>21709.179749999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.030328</v>
+        <v>6.0303279999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.129000</v>
+        <v>-144.12899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>21719.516873</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.033199</v>
+        <v>6.0331989999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.594000</v>
+        <v>-229.59399999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>21730.280555</v>
+        <v>21730.280555000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.036189</v>
+        <v>6.0361890000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.343000</v>
+        <v>-366.34300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>21741.398380</v>
+        <v>21741.398379999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.039277</v>
+        <v>6.0392770000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.609000</v>
+        <v>-577.60900000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>21752.149662</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.042264</v>
+        <v>6.0422640000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.360000</v>
+        <v>1410.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-803.229000</v>
+        <v>-803.22900000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>21762.884080</v>
+        <v>21762.88408</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.045246</v>
+        <v>6.0452459999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.130000</v>
+        <v>1573.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1038.920000</v>
+        <v>-1038.92</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>21774.067873</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.048352</v>
+        <v>6.0483520000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1986.740000</v>
+        <v>1986.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1588.190000</v>
+        <v>-1588.19</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>21603.273474</v>
+        <v>21603.273474000001</v>
       </c>
       <c r="B3" s="1">
         <v>6.000909</v>
       </c>
       <c r="C3" s="1">
-        <v>899.453000</v>
+        <v>899.45299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.882000</v>
+        <v>-194.88200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>21613.638901</v>
+        <v>21613.638900999998</v>
       </c>
       <c r="G3" s="1">
-        <v>6.003789</v>
+        <v>6.0037890000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>916.410000</v>
+        <v>916.41</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.656000</v>
+        <v>-165.65600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>21624.101976</v>
+        <v>21624.101976000002</v>
       </c>
       <c r="L3" s="1">
-        <v>6.006695</v>
+        <v>6.0066949999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>938.938000</v>
+        <v>938.93799999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.701000</v>
+        <v>-118.70099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>21634.953944</v>
+        <v>21634.953944000001</v>
       </c>
       <c r="Q3" s="1">
         <v>6.009709</v>
       </c>
       <c r="R3" s="1">
-        <v>945.507000</v>
+        <v>945.50699999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.492000</v>
+        <v>-103.492</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>21645.515754</v>
       </c>
       <c r="V3" s="1">
-        <v>6.012643</v>
+        <v>6.0126429999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>951.950000</v>
+        <v>951.95</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.954400</v>
+        <v>-89.954400000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>21655.879699</v>
+        <v>21655.879699000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.015522</v>
+        <v>6.0155219999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.230000</v>
+        <v>959.23</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.446200</v>
+        <v>-80.446200000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>21666.427584</v>
+        <v>21666.427584000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.018452</v>
+        <v>6.0184519999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.086000</v>
+        <v>964.08600000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.201400</v>
+        <v>-80.201400000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>21676.860459</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.021350</v>
+        <v>6.02135</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.180000</v>
+        <v>972.18</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.247600</v>
+        <v>-88.247600000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>21687.724802</v>
+        <v>21687.724802000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.024368</v>
+        <v>6.0243679999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.484000</v>
+        <v>981.48400000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.405000</v>
+        <v>-103.405</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>21698.488484</v>
+        <v>21698.488484000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.027358</v>
+        <v>6.0273580000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.010000</v>
+        <v>993.01</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.197000</v>
+        <v>-125.197</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>21709.607798</v>
+        <v>21709.607798000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.030447</v>
+        <v>6.0304469999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.138000</v>
+        <v>-144.13800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>21719.880937</v>
+        <v>21719.880937000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.033300</v>
+        <v>6.0332999999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.593000</v>
+        <v>-229.59299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>21730.691242</v>
+        <v>21730.691242000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.036303</v>
+        <v>6.0363030000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.000000</v>
+        <v>1129</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.383000</v>
+        <v>-366.38299999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>21741.820971</v>
+        <v>21741.820971000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.039395</v>
+        <v>6.0393949999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.585000</v>
+        <v>-577.58500000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>21752.594077</v>
+        <v>21752.594077000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.042387</v>
+        <v>6.0423869999999997</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="BV3" s="1">
-        <v>-803.353000</v>
+        <v>-803.35299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>21763.347342</v>
+        <v>21763.347342000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.045374</v>
+        <v>6.0453739999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.130000</v>
+        <v>1573.13</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1038.970000</v>
+        <v>-1038.97</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>21774.343648</v>
+        <v>21774.343647999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.048429</v>
+        <v>6.0484289999999996</v>
       </c>
       <c r="CE3" s="1">
-        <v>1986.460000</v>
+        <v>1986.46</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1589.350000</v>
+        <v>-1589.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>21603.614753</v>
+        <v>21603.614753000002</v>
       </c>
       <c r="B4" s="1">
         <v>6.001004</v>
       </c>
       <c r="C4" s="1">
-        <v>899.612000</v>
+        <v>899.61199999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.972000</v>
+        <v>-194.97200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>21614.328308</v>
       </c>
       <c r="G4" s="1">
-        <v>6.003980</v>
+        <v>6.0039800000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>916.622000</v>
+        <v>916.62199999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.769000</v>
+        <v>-165.76900000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>21624.786982</v>
+        <v>21624.786982000001</v>
       </c>
       <c r="L4" s="1">
-        <v>6.006885</v>
+        <v>6.0068849999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>938.964000</v>
+        <v>938.96400000000006</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.860000</v>
+        <v>-118.86</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>21635.301640</v>
+        <v>21635.301640000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.009806</v>
+        <v>6.0098060000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>945.522000</v>
+        <v>945.52200000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.507000</v>
+        <v>-103.50700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>21645.860475</v>
+        <v>21645.860475000001</v>
       </c>
       <c r="V4" s="1">
-        <v>6.012739</v>
+        <v>6.0127389999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>952.012000</v>
+        <v>952.01199999999994</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.864700</v>
+        <v>-89.864699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>21656.227357</v>
@@ -1070,632 +1486,632 @@
         <v>6.015619</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.137000</v>
+        <v>959.13699999999994</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.549000</v>
+        <v>-80.549000000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>21667.081838</v>
+        <v>21667.081837999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.018634</v>
+        <v>6.0186339999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.984000</v>
+        <v>963.98400000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.233800</v>
+        <v>-80.233800000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>21677.509697</v>
+        <v>21677.509697000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.021530</v>
+        <v>6.0215300000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.169000</v>
+        <v>972.16899999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.220600</v>
+        <v>-88.220600000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>21688.155330</v>
+        <v>21688.155330000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.024488</v>
+        <v>6.0244879999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.479000</v>
+        <v>981.47900000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.383000</v>
+        <v>-103.383</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>21698.835188</v>
+        <v>21698.835188000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.027454</v>
+        <v>6.0274539999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.024000</v>
+        <v>993.024</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.210000</v>
+        <v>-125.21</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>21709.967424</v>
+        <v>21709.967423999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.030547</v>
+        <v>6.0305470000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.115000</v>
+        <v>-144.11500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>21720.241032</v>
+        <v>21720.241032000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.033400</v>
+        <v>6.0334000000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.593000</v>
+        <v>-229.59299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>21731.102425</v>
+        <v>21731.102425000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.036417</v>
+        <v>6.0364170000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.040000</v>
+        <v>1129.04</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.359000</v>
+        <v>-366.35899999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>21742.241579</v>
+        <v>21742.241579000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.039512</v>
+        <v>6.0395120000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.470000</v>
+        <v>1261.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.579000</v>
+        <v>-577.57899999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>21753.030557</v>
+        <v>21753.030556999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.042508</v>
+        <v>6.0425079999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.430000</v>
+        <v>1410.43</v>
       </c>
       <c r="BV4" s="1">
-        <v>-803.462000</v>
+        <v>-803.46199999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>21763.796260</v>
+        <v>21763.796259999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.045499</v>
+        <v>6.0454990000000004</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.120000</v>
+        <v>1573.12</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1039.120000</v>
+        <v>-1039.1199999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>21774.876351</v>
+        <v>21774.876350999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.048577</v>
+        <v>6.0485769999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.720000</v>
+        <v>1985.72</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1587.770000</v>
+        <v>-1587.77</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>21604.299238</v>
       </c>
       <c r="B5" s="1">
-        <v>6.001194</v>
+        <v>6.0011939999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>899.531000</v>
+        <v>899.53099999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.829000</v>
+        <v>-194.82900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>21614.675037</v>
+        <v>21614.675037000001</v>
       </c>
       <c r="G5" s="1">
-        <v>6.004076</v>
+        <v>6.0040760000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>916.586000</v>
+        <v>916.58600000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.479000</v>
+        <v>-165.47900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>21625.134150</v>
+        <v>21625.134150000002</v>
       </c>
       <c r="L5" s="1">
-        <v>6.006982</v>
+        <v>6.0069819999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>938.999000</v>
+        <v>938.99900000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.687000</v>
+        <v>-118.687</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>21635.650362</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.009903</v>
+        <v>6.0099030000000004</v>
       </c>
       <c r="R5" s="1">
-        <v>945.513000</v>
+        <v>945.51300000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.500000</v>
+        <v>-103.5</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>21646.508745</v>
+        <v>21646.508744999999</v>
       </c>
       <c r="V5" s="1">
-        <v>6.012919</v>
+        <v>6.0129190000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>951.905000</v>
+        <v>951.90499999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.883600</v>
+        <v>-89.883600000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>21656.882573</v>
+        <v>21656.882572999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.015801</v>
+        <v>6.0158009999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.157000</v>
+        <v>959.15700000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.490700</v>
+        <v>-80.490700000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>21667.457774</v>
+        <v>21667.457773999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.018738</v>
+        <v>6.0187379999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.094000</v>
+        <v>964.09400000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.333600</v>
+        <v>-80.333600000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>21677.904016</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.021640</v>
+        <v>6.0216399999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.162000</v>
+        <v>972.16200000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.208500</v>
+        <v>-88.208500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>21688.531298</v>
+        <v>21688.531298000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.024592</v>
+        <v>6.0245920000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.484000</v>
+        <v>981.48400000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.408000</v>
+        <v>-103.408</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>21699.200740</v>
+        <v>21699.20074</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.027556</v>
+        <v>6.0275559999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.026000</v>
+        <v>993.02599999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.199000</v>
+        <v>-125.199</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>21710.324550</v>
+        <v>21710.324550000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>6.030646</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.137000</v>
+        <v>-144.137</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>21720.658167</v>
+        <v>21720.658167000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.033516</v>
+        <v>6.0335159999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.587000</v>
+        <v>-229.58699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>21731.442185</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.036512</v>
+        <v>6.0365120000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.020000</v>
+        <v>1129.02</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.413000</v>
+        <v>-366.41300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>21742.641355</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.039623</v>
+        <v>6.0396229999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.420000</v>
+        <v>1261.42</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.622000</v>
+        <v>-577.62199999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>21753.457612</v>
+        <v>21753.457611999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.042627</v>
+        <v>6.0426270000000004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.400000</v>
+        <v>1410.4</v>
       </c>
       <c r="BV5" s="1">
-        <v>-803.651000</v>
+        <v>-803.65099999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>21764.227742</v>
+        <v>21764.227741999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.045619</v>
+        <v>6.0456190000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1038.940000</v>
+        <v>-1038.94</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>21775.415040</v>
+        <v>21775.41504</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.048726</v>
+        <v>6.0487260000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>1985.470000</v>
+        <v>1985.47</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1589.640000</v>
+        <v>-1589.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>21604.642929</v>
+        <v>21604.642929000001</v>
       </c>
       <c r="B6" s="1">
-        <v>6.001290</v>
+        <v>6.00129</v>
       </c>
       <c r="C6" s="1">
-        <v>899.620000</v>
+        <v>899.62</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.839000</v>
+        <v>-194.839</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>21615.022707</v>
       </c>
       <c r="G6" s="1">
-        <v>6.004173</v>
+        <v>6.0041729999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>916.819000</v>
+        <v>916.81899999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.057000</v>
+        <v>-165.05699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>21625.484821</v>
+        <v>21625.484820999998</v>
       </c>
       <c r="L6" s="1">
-        <v>6.007079</v>
+        <v>6.0070790000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>938.890000</v>
+        <v>938.89</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.830000</v>
+        <v>-118.83</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>21636.310503</v>
+        <v>21636.310503000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.010086</v>
+        <v>6.0100860000000003</v>
       </c>
       <c r="R6" s="1">
-        <v>945.480000</v>
+        <v>945.48</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.523000</v>
+        <v>-103.523</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>21646.893145</v>
+        <v>21646.893144999998</v>
       </c>
       <c r="V6" s="1">
         <v>6.013026</v>
       </c>
       <c r="W6" s="1">
-        <v>951.955000</v>
+        <v>951.95500000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.793900</v>
+        <v>-89.793899999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>21657.272428</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.015909</v>
+        <v>6.0159089999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.125000</v>
+        <v>959.125</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.590800</v>
+        <v>-80.590800000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>21667.801533</v>
+        <v>21667.801533000002</v>
       </c>
       <c r="AF6" s="1">
         <v>6.018834</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.190000</v>
+        <v>964.19</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.270200</v>
+        <v>-80.270200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>21678.253199</v>
+        <v>21678.253198999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.021737</v>
+        <v>6.0217369999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.183000</v>
+        <v>972.18299999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.227500</v>
+        <v>-88.227500000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>21688.890401</v>
+        <v>21688.890401000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.024692</v>
+        <v>6.0246919999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.492000</v>
+        <v>981.49199999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.408000</v>
+        <v>-103.408</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>21699.629283</v>
+        <v>21699.629282999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.027675</v>
+        <v>6.0276750000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.057000</v>
+        <v>993.05700000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.194000</v>
+        <v>-125.194</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>21710.746116</v>
+        <v>21710.746115999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.030763</v>
+        <v>6.0307630000000003</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.135000</v>
+        <v>-144.13499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>21720.964894</v>
+        <v>21720.964894000001</v>
       </c>
       <c r="BE6" s="1">
         <v>6.033601</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.592000</v>
+        <v>-229.59200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>21731.817656</v>
+        <v>21731.817655999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.036616</v>
+        <v>6.0366160000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.322000</v>
+        <v>-366.322</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>21743.061478</v>
@@ -1704,981 +2120,981 @@
         <v>6.039739</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.400000</v>
+        <v>1261.4000000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.655000</v>
+        <v>-577.65499999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>21753.872763</v>
+        <v>21753.872762999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.042742</v>
+        <v>6.0427419999999996</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.300000</v>
+        <v>1410.3</v>
       </c>
       <c r="BV6" s="1">
-        <v>-803.744000</v>
+        <v>-803.74400000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>21764.798672</v>
+        <v>21764.798672000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.045777</v>
+        <v>6.0457770000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.170000</v>
+        <v>1573.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1039.070000</v>
+        <v>-1039.07</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>21775.954691</v>
+        <v>21775.954690999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.048876</v>
+        <v>6.0488759999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1986.590000</v>
+        <v>1986.59</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1588.690000</v>
+        <v>-1588.69</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>21604.982192</v>
+        <v>21604.982191999999</v>
       </c>
       <c r="B7" s="1">
-        <v>6.001384</v>
+        <v>6.0013839999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>899.625000</v>
+        <v>899.625</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.813000</v>
+        <v>-194.81299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>21615.663569</v>
       </c>
       <c r="G7" s="1">
-        <v>6.004351</v>
+        <v>6.0043509999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>916.781000</v>
+        <v>916.78099999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.611000</v>
+        <v>-165.61099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>21626.136068</v>
       </c>
       <c r="L7" s="1">
-        <v>6.007260</v>
+        <v>6.0072599999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>939.100000</v>
+        <v>939.1</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.633000</v>
+        <v>-118.633</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>21636.695929</v>
+        <v>21636.695929000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.010193</v>
+        <v>6.0101930000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>945.469000</v>
+        <v>945.46900000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.517000</v>
+        <v>-103.517</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>21647.232408</v>
       </c>
       <c r="V7" s="1">
-        <v>6.013120</v>
+        <v>6.0131199999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>951.916000</v>
+        <v>951.91600000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.918200</v>
+        <v>-89.918199999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>21657.621116</v>
+        <v>21657.621115999998</v>
       </c>
       <c r="AA7" s="1">
         <v>6.016006</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.261000</v>
+        <v>959.26099999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.572600</v>
+        <v>-80.572599999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>21668.148204</v>
+        <v>21668.148204000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.018930</v>
+        <v>6.0189300000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.146000</v>
+        <v>964.14599999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.275100</v>
+        <v>-80.275099999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>21678.623710</v>
+        <v>21678.62371</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.021840</v>
+        <v>6.0218400000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.168000</v>
+        <v>972.16800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.254200</v>
+        <v>-88.254199999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>21689.299601</v>
+        <v>21689.299600999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.024805</v>
+        <v>6.0248049999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.478000</v>
+        <v>981.47799999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.419000</v>
+        <v>-103.419</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>21699.930356</v>
+        <v>21699.930356000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.027758</v>
+        <v>6.0277580000000004</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.052000</v>
+        <v>993.05200000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.217000</v>
+        <v>-125.217</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>21711.040278</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.030845</v>
+        <v>6.0308450000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.110000</v>
+        <v>-144.11000000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>21721.324326</v>
+        <v>21721.324326000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.033701</v>
+        <v>6.0337009999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.760000</v>
+        <v>1048.76</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.599000</v>
+        <v>-229.59899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>21732.199111</v>
+        <v>21732.199111000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.036722</v>
+        <v>6.0367220000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.385000</v>
+        <v>-366.38499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>21743.458763</v>
+        <v>21743.458762999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.039850</v>
+        <v>6.0398500000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.460000</v>
+        <v>1261.46</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.610000</v>
+        <v>-577.61</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>21754.300316</v>
+        <v>21754.300316000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.042861</v>
+        <v>6.0428610000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.210000</v>
+        <v>1410.21</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.756000</v>
+        <v>-803.75599999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>21765.067996</v>
+        <v>21765.067996000002</v>
       </c>
       <c r="BY7" s="1">
         <v>6.045852</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.190000</v>
+        <v>1573.19</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1038.950000</v>
+        <v>-1038.95</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>21776.497279</v>
+        <v>21776.497278999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.049027</v>
+        <v>6.0490269999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1984.870000</v>
+        <v>1984.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1587.880000</v>
+        <v>-1587.88</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>21605.622064</v>
+        <v>21605.622063999999</v>
       </c>
       <c r="B8" s="1">
-        <v>6.001562</v>
+        <v>6.0015619999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>899.633000</v>
+        <v>899.63300000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.768000</v>
+        <v>-194.768</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>21616.052897</v>
+        <v>21616.052897000001</v>
       </c>
       <c r="G8" s="1">
-        <v>6.004459</v>
+        <v>6.0044589999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>916.350000</v>
+        <v>916.35</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.625000</v>
+        <v>-165.625</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>21626.523271</v>
+        <v>21626.523270999998</v>
       </c>
       <c r="L8" s="1">
-        <v>6.007368</v>
+        <v>6.0073679999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>938.988000</v>
+        <v>938.98800000000006</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.676000</v>
+        <v>-118.676</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>21637.045077</v>
+        <v>21637.045076999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.010290</v>
+        <v>6.0102900000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>945.476000</v>
+        <v>945.476</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.445000</v>
+        <v>-103.44499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>21647.578121</v>
+        <v>21647.578120999999</v>
       </c>
       <c r="V8" s="1">
-        <v>6.013216</v>
+        <v>6.0132159999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>951.927000</v>
+        <v>951.92700000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.848100</v>
+        <v>-89.848100000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>21657.972810</v>
+        <v>21657.972809999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.016104</v>
+        <v>6.0161040000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.157000</v>
+        <v>959.15700000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.585600</v>
+        <v>-80.585599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>21668.575262</v>
+        <v>21668.575261999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.019049</v>
+        <v>6.0190489999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.181000</v>
+        <v>964.18100000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.268400</v>
+        <v>-80.2684</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>21679.115742</v>
+        <v>21679.115742000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.021977</v>
+        <v>6.0219769999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.201000</v>
+        <v>972.20100000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.222700</v>
+        <v>-88.222700000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>21689.613106</v>
+        <v>21689.613106000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.024893</v>
+        <v>6.0248929999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.498000</v>
+        <v>981.49800000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.413000</v>
+        <v>-103.413</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>21700.295410</v>
+        <v>21700.295409999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.027860</v>
+        <v>6.0278600000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.053000</v>
+        <v>993.053</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.212000</v>
+        <v>-125.212</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>21711.399362</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.030944</v>
+        <v>6.0309439999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.138000</v>
+        <v>-144.13800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>21721.686871</v>
+        <v>21721.686871000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.033802</v>
+        <v>6.0338019999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.770000</v>
+        <v>1048.77</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.612000</v>
+        <v>-229.61199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>21732.959447</v>
+        <v>21732.959447000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.036933</v>
+        <v>6.0369330000000003</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.030000</v>
+        <v>1129.03</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.353000</v>
+        <v>-366.35300000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>21743.876425</v>
+        <v>21743.876424999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.039966</v>
+        <v>6.0399659999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.630000</v>
+        <v>-577.63</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>21754.726874</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.042980</v>
+        <v>6.04298</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.010000</v>
+        <v>1410.01</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.885000</v>
+        <v>-803.88499999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>21765.493532</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.045970</v>
+        <v>6.0459699999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.140000</v>
+        <v>1573.14</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1039.030000</v>
+        <v>-1039.03</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>21777.034445</v>
+        <v>21777.034445000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.049176</v>
+        <v>6.0491760000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1986.330000</v>
+        <v>1986.33</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1589.530000</v>
+        <v>-1589.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>21606.007938</v>
+        <v>21606.007937999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.001669</v>
+        <v>6.0016689999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>899.538000</v>
+        <v>899.53800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.015000</v>
+        <v>-195.01499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>21616.403075</v>
+        <v>21616.403074999998</v>
       </c>
       <c r="G9" s="1">
         <v>6.004556</v>
       </c>
       <c r="H9" s="1">
-        <v>916.654000</v>
+        <v>916.654</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.536000</v>
+        <v>-165.536</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>21626.865716</v>
       </c>
       <c r="L9" s="1">
-        <v>6.007463</v>
+        <v>6.0074630000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>939.050000</v>
+        <v>939.05</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.793000</v>
+        <v>-118.79300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>21637.393766</v>
+        <v>21637.393766000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.010387</v>
+        <v>6.0103869999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>945.507000</v>
+        <v>945.50699999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.504000</v>
+        <v>-103.504</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>21647.992775</v>
+        <v>21647.992774999999</v>
       </c>
       <c r="V9" s="1">
         <v>6.013331</v>
       </c>
       <c r="W9" s="1">
-        <v>951.932000</v>
+        <v>951.93200000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.869300</v>
+        <v>-89.869299999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>21658.389913</v>
+        <v>21658.389912999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.016219</v>
+        <v>6.0162190000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.216000</v>
+        <v>959.21600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.487600</v>
+        <v>-80.4876</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>21668.850572</v>
+        <v>21668.850571999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.019125</v>
+        <v>6.0191249999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.165000</v>
+        <v>964.16499999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.270100</v>
+        <v>-80.270099999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>21679.312198</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.022031</v>
+        <v>6.0220310000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.163000</v>
+        <v>972.16300000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.233000</v>
+        <v>-88.233000000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>21689.969728</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.024992</v>
+        <v>6.0249920000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.480000</v>
+        <v>981.48</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.395000</v>
+        <v>-103.395</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>21700.658978</v>
+        <v>21700.658977999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.027961</v>
+        <v>6.0279610000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.032000</v>
+        <v>993.03200000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.215000</v>
+        <v>-125.215</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>21711.758985</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.031044</v>
+        <v>6.0310439999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.136000</v>
+        <v>-144.136</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>21722.408054</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.034002</v>
+        <v>6.0340020000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.603000</v>
+        <v>-229.60300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>21733.336406</v>
+        <v>21733.336405999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.037038</v>
+        <v>6.0370379999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.401000</v>
+        <v>-366.40100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>21744.272200</v>
+        <v>21744.272199999999</v>
       </c>
       <c r="BO9" s="1">
         <v>6.040076</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.652000</v>
+        <v>-577.65200000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>21755.141065</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.043095</v>
+        <v>6.0430950000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.860000</v>
+        <v>1409.86</v>
       </c>
       <c r="BV9" s="1">
-        <v>-803.887000</v>
+        <v>-803.88699999999994</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>21766.224635</v>
+        <v>21766.224634999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.046174</v>
+        <v>6.0461739999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.120000</v>
+        <v>1573.12</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1039.120000</v>
+        <v>-1039.1199999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>21777.881643</v>
+        <v>21777.881643000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.049412</v>
+        <v>6.0494120000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1984.680000</v>
+        <v>1984.68</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1588.870000</v>
+        <v>-1588.87</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>21606.350654</v>
+        <v>21606.350654000002</v>
       </c>
       <c r="B10" s="1">
-        <v>6.001764</v>
+        <v>6.0017639999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>899.825000</v>
+        <v>899.82500000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.048000</v>
+        <v>-195.048</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>21616.743824</v>
+        <v>21616.743824000001</v>
       </c>
       <c r="G10" s="1">
         <v>6.004651</v>
       </c>
       <c r="H10" s="1">
-        <v>916.688000</v>
+        <v>916.68799999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.465000</v>
+        <v>-165.465</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>21627.211395</v>
+        <v>21627.211394999998</v>
       </c>
       <c r="L10" s="1">
-        <v>6.007559</v>
+        <v>6.0075589999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>939.155000</v>
+        <v>939.15499999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.572000</v>
+        <v>-118.572</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>21637.818341</v>
+        <v>21637.818340999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.010505</v>
+        <v>6.0105050000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>945.529000</v>
+        <v>945.529</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.501000</v>
+        <v>-103.501</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>21648.273016</v>
+        <v>21648.273015999999</v>
       </c>
       <c r="V10" s="1">
-        <v>6.013409</v>
+        <v>6.0134090000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>951.972000</v>
+        <v>951.97199999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.901200</v>
+        <v>-89.901200000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>21658.685033</v>
+        <v>21658.685033000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.016301</v>
+        <v>6.0163010000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.139000</v>
+        <v>959.13900000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.562900</v>
+        <v>-80.562899999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>21669.193307</v>
+        <v>21669.193307000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.019220</v>
+        <v>6.0192199999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.160000</v>
+        <v>964.16</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.306900</v>
+        <v>-80.306899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>21679.663357</v>
+        <v>21679.663357000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.022129</v>
+        <v>6.0221289999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.176000</v>
+        <v>972.17600000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.226100</v>
+        <v>-88.226100000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>21690.335286</v>
+        <v>21690.335286000001</v>
       </c>
       <c r="AP10" s="1">
         <v>6.025093</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.471000</v>
+        <v>981.471</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.394000</v>
+        <v>-103.39400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>21701.387137</v>
+        <v>21701.387137000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.028163</v>
+        <v>6.0281630000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.045000</v>
+        <v>993.04499999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.192000</v>
+        <v>-125.19199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>21712.476659</v>
@@ -2687,877 +3103,877 @@
         <v>6.031244</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.117000</v>
+        <v>-144.11699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>21722.770628</v>
+        <v>21722.770627999998</v>
       </c>
       <c r="BE10" s="1">
         <v>6.034103</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.607000</v>
+        <v>-229.607</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>21733.715846</v>
+        <v>21733.715845999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.037143</v>
+        <v>6.0371430000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.050000</v>
+        <v>1129.05</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.413000</v>
+        <v>-366.41300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>21744.695302</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.040193</v>
+        <v>6.0401930000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.430000</v>
+        <v>1261.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.684000</v>
+        <v>-577.68399999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>21755.876136</v>
+        <v>21755.876135999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.043299</v>
+        <v>6.0432990000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.770000</v>
+        <v>1409.77</v>
       </c>
       <c r="BV10" s="1">
-        <v>-803.740000</v>
+        <v>-803.74</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>21766.368010</v>
+        <v>21766.368009999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.046213</v>
+        <v>6.0462129999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.150000</v>
+        <v>1573.15</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.170000</v>
+        <v>-1039.17</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>21778.114763</v>
+        <v>21778.114763000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.049476</v>
+        <v>6.0494760000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>1984.440000</v>
+        <v>1984.44</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1588.400000</v>
+        <v>-1588.4</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>21606.692926</v>
       </c>
       <c r="B11" s="1">
-        <v>6.001859</v>
+        <v>6.0018589999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>899.474000</v>
+        <v>899.47400000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.008000</v>
+        <v>-195.00800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>21617.159968</v>
       </c>
       <c r="G11" s="1">
-        <v>6.004767</v>
+        <v>6.0047670000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>916.749000</v>
+        <v>916.74900000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.166000</v>
+        <v>-165.166</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>21627.705907</v>
       </c>
       <c r="L11" s="1">
-        <v>6.007696</v>
+        <v>6.0076960000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>939.019000</v>
+        <v>939.01900000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.773000</v>
+        <v>-118.773</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>21638.096132</v>
+        <v>21638.096131999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.010582</v>
+        <v>6.0105820000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>945.481000</v>
+        <v>945.48099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.559000</v>
+        <v>-103.559</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>21648.613767</v>
+        <v>21648.613766999999</v>
       </c>
       <c r="V11" s="1">
-        <v>6.013504</v>
+        <v>6.0135040000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>951.909000</v>
+        <v>951.90899999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.899600</v>
+        <v>-89.899600000000007</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>21659.030776</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.016397</v>
+        <v>6.0163970000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.237000</v>
+        <v>959.23699999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.588600</v>
+        <v>-80.5886</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>21669.536178</v>
+        <v>21669.536177999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.019316</v>
+        <v>6.0193159999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.159000</v>
+        <v>964.15899999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.308600</v>
+        <v>-80.308599999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>21680.358254</v>
+        <v>21680.358253999999</v>
       </c>
       <c r="AK11" s="1">
         <v>6.022322</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.174000</v>
+        <v>972.17399999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.236200</v>
+        <v>-88.236199999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>21691.063870</v>
+        <v>21691.063870000002</v>
       </c>
       <c r="AP11" s="1">
         <v>6.025296</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.483000</v>
+        <v>981.48299999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.415000</v>
+        <v>-103.41500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>21701.780464</v>
+        <v>21701.780463999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.028272</v>
+        <v>6.0282720000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.049000</v>
+        <v>993.04899999999998</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.201000</v>
+        <v>-125.20099999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>21712.836754</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.031344</v>
+        <v>6.0313439999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.113000</v>
+        <v>-144.113</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>21723.130727</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.034203</v>
+        <v>6.0342029999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.760000</v>
+        <v>1048.76</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.592000</v>
+        <v>-229.59200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>21734.414709</v>
+        <v>21734.414709000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>6.037337</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.100000</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.355000</v>
+        <v>-366.35500000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>21745.394152</v>
+        <v>21745.394152000001</v>
       </c>
       <c r="BO11" s="1">
         <v>6.040387</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.440000</v>
+        <v>1261.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.665000</v>
+        <v>-577.66499999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>21755.997165</v>
+        <v>21755.997165000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.043333</v>
+        <v>6.0433329999999996</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.710000</v>
+        <v>1409.71</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.677000</v>
+        <v>-803.67700000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>21766.794042</v>
+        <v>21766.794042000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.046332</v>
+        <v>6.0463319999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.290000</v>
+        <v>1573.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1039.050000</v>
+        <v>-1039.05</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>21778.632555</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.049620</v>
+        <v>6.04962</v>
       </c>
       <c r="CE11" s="1">
-        <v>1985.580000</v>
+        <v>1985.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1590.010000</v>
+        <v>-1590.01</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>21607.106063</v>
+        <v>21607.106062999999</v>
       </c>
       <c r="B12" s="1">
-        <v>6.001974</v>
+        <v>6.0019739999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>899.672000</v>
+        <v>899.67200000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.901000</v>
+        <v>-194.90100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>21617.434785</v>
+        <v>21617.434785000001</v>
       </c>
       <c r="G12" s="1">
-        <v>6.004843</v>
+        <v>6.0048430000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>916.673000</v>
+        <v>916.673</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.773000</v>
+        <v>-165.773</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>21627.906425</v>
+        <v>21627.906425000001</v>
       </c>
       <c r="L12" s="1">
         <v>6.007752</v>
       </c>
       <c r="M12" s="1">
-        <v>938.917000</v>
+        <v>938.91700000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.765000</v>
+        <v>-118.765</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>21638.444819</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.010679</v>
+        <v>6.0106789999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>945.465000</v>
+        <v>945.46500000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.536000</v>
+        <v>-103.536</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>21648.959478</v>
+        <v>21648.959478000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.013600</v>
+        <v>6.0136000000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>951.922000</v>
+        <v>951.92200000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.882400</v>
+        <v>-89.882400000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>21659.378937</v>
+        <v>21659.378937000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.016494</v>
+        <v>6.0164939999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.203000</v>
+        <v>959.20299999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.527400</v>
+        <v>-80.5274</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>21670.224490</v>
+        <v>21670.224490000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.019507</v>
+        <v>6.0195069999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.115000</v>
+        <v>964.11500000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.238700</v>
+        <v>-80.238699999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>21680.705452</v>
+        <v>21680.705451999998</v>
       </c>
       <c r="AK12" s="1">
         <v>6.022418</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.201000</v>
+        <v>972.20100000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.255100</v>
+        <v>-88.255099999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>21691.439869</v>
+        <v>21691.439869000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.025400</v>
+        <v>6.0254000000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.505000</v>
+        <v>981.505</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>21702.143541</v>
+        <v>21702.143541000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.028373</v>
+        <v>6.0283730000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.044000</v>
+        <v>993.04399999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.209000</v>
+        <v>-125.209</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>21713.194369</v>
+        <v>21713.194369000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.031443</v>
+        <v>6.0314430000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.118000</v>
+        <v>-144.11799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>21723.799860</v>
+        <v>21723.799859999999</v>
       </c>
       <c r="BE12" s="1">
         <v>6.034389</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.599000</v>
+        <v>-229.59899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>21734.863642</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.037462</v>
+        <v>6.0374619999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.342000</v>
+        <v>-366.34199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>21745.512854</v>
+        <v>21745.512854000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.040420</v>
+        <v>6.0404200000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.480000</v>
+        <v>1261.48</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.674000</v>
+        <v>-577.67399999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>21756.410819</v>
+        <v>21756.410819000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.043447</v>
+        <v>6.0434469999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.600000</v>
+        <v>1409.6</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.512000</v>
+        <v>-803.51199999999994</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>21767.209723</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.046447</v>
+        <v>6.0464469999999997</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.160000</v>
+        <v>1573.16</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.030000</v>
+        <v>-1039.03</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>21779.151865</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.049764</v>
+        <v>6.0497639999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>1984.880000</v>
+        <v>1984.88</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1589.110000</v>
+        <v>-1589.11</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>21607.395229</v>
+        <v>21607.395229000002</v>
       </c>
       <c r="B13" s="1">
-        <v>6.002054</v>
+        <v>6.0020540000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>899.542000</v>
+        <v>899.54200000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.969000</v>
+        <v>-194.96899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21617.780996</v>
+        <v>21617.780996000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6.004939</v>
+        <v>6.0049390000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>916.543000</v>
+        <v>916.54300000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.571000</v>
+        <v>-165.571</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>21628.248529</v>
       </c>
       <c r="L13" s="1">
-        <v>6.007847</v>
+        <v>6.0078469999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>938.940000</v>
+        <v>938.94</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.723000</v>
+        <v>-118.723</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>21638.792483</v>
+        <v>21638.792483000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.010776</v>
+        <v>6.0107759999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>945.464000</v>
+        <v>945.46400000000006</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.487000</v>
+        <v>-103.48699999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>21649.646933</v>
       </c>
       <c r="V13" s="1">
-        <v>6.013791</v>
+        <v>6.0137910000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>951.911000</v>
+        <v>951.91099999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.880700</v>
+        <v>-89.880700000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>21660.078297</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.016688</v>
+        <v>6.0166880000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.161000</v>
+        <v>959.16099999999994</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.498100</v>
+        <v>-80.498099999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>21670.566202</v>
+        <v>21670.566202000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.019602</v>
+        <v>6.0196019999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.199000</v>
+        <v>964.19899999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.269200</v>
+        <v>-80.269199999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>21681.053643</v>
+        <v>21681.053642999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.022515</v>
+        <v>6.0225150000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.185000</v>
+        <v>972.18499999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.243400</v>
+        <v>-88.243399999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>21691.829693</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.025508</v>
+        <v>6.0255080000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.497000</v>
+        <v>981.49699999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.396000</v>
+        <v>-103.396</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>21702.819551</v>
+        <v>21702.819551000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.028561</v>
+        <v>6.0285609999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.042000</v>
+        <v>993.04200000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.194000</v>
+        <v>-125.194</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>21713.623440</v>
+        <v>21713.623439999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.031562</v>
+        <v>6.0315620000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.128000</v>
+        <v>-144.12799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>21724.237826</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.034511</v>
+        <v>6.0345110000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.589000</v>
+        <v>-229.589</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>21735.267859</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.037574</v>
+        <v>6.0375740000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.413000</v>
+        <v>-366.41300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>21745.939256</v>
+        <v>21745.939256000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.040539</v>
+        <v>6.0405389999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.480000</v>
+        <v>1261.48</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.636000</v>
+        <v>-577.63599999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>21756.841815</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.043567</v>
+        <v>6.0435670000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.690000</v>
+        <v>1409.69</v>
       </c>
       <c r="BV13" s="1">
-        <v>-803.436000</v>
+        <v>-803.43600000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>21767.664062</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.046573</v>
+        <v>6.0465730000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.220000</v>
+        <v>1573.22</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1039.090000</v>
+        <v>-1039.0899999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>21779.704938</v>
+        <v>21779.704937999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.049918</v>
+        <v>6.0499179999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1984.660000</v>
+        <v>1984.66</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1587.950000</v>
+        <v>-1587.95</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>21607.734494</v>
       </c>
@@ -3565,345 +3981,345 @@
         <v>6.002148</v>
       </c>
       <c r="C14" s="1">
-        <v>899.772000</v>
+        <v>899.77200000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.974000</v>
+        <v>-194.97399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>21618.124687</v>
       </c>
       <c r="G14" s="1">
-        <v>6.005035</v>
+        <v>6.0050350000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>916.643000</v>
+        <v>916.64300000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.294000</v>
+        <v>-165.29400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>21628.939962</v>
       </c>
       <c r="L14" s="1">
-        <v>6.008039</v>
+        <v>6.0080390000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>939.052000</v>
+        <v>939.05200000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.838000</v>
+        <v>-118.83799999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>21639.491346</v>
+        <v>21639.491345999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.010970</v>
+        <v>6.0109700000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>945.508000</v>
+        <v>945.50800000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.465000</v>
+        <v>-103.465</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>21649.988011</v>
+        <v>21649.988011000001</v>
       </c>
       <c r="V14" s="1">
-        <v>6.013886</v>
+        <v>6.0138860000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>952.012000</v>
+        <v>952.01199999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.880200</v>
+        <v>-89.880200000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>21660.426984</v>
+        <v>21660.426984000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.016785</v>
+        <v>6.0167849999999996</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.113000</v>
+        <v>959.11300000000006</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.551900</v>
+        <v>-80.551900000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>21670.910921</v>
+        <v>21670.910920999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.019697</v>
+        <v>6.0196969999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.165000</v>
+        <v>964.16499999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.210900</v>
+        <v>-80.210899999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>21681.708827</v>
+        <v>21681.708826999999</v>
       </c>
       <c r="AK14" s="1">
         <v>6.022697</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.185000</v>
+        <v>972.18499999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.239800</v>
+        <v>-88.239800000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>21692.506766</v>
+        <v>21692.506765999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.025696</v>
+        <v>6.0256959999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.469000</v>
+        <v>981.46900000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.407000</v>
+        <v>-103.407</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>21703.269950</v>
+        <v>21703.269950000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.028686</v>
+        <v>6.0286860000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.034000</v>
+        <v>993.03399999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.201000</v>
+        <v>-125.20099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>21713.915059</v>
+        <v>21713.915058999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.031643</v>
+        <v>6.0316429999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.164000</v>
+        <v>-144.16399999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>21724.599874</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.034611</v>
+        <v>6.0346109999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.720000</v>
+        <v>1048.72</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.605000</v>
+        <v>-229.60499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>21735.644787</v>
+        <v>21735.644787000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.037679</v>
+        <v>6.0376789999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.030000</v>
+        <v>1129.03</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.385000</v>
+        <v>-366.38499999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>21746.333114</v>
+        <v>21746.333114000001</v>
       </c>
       <c r="BO14" s="1">
         <v>6.040648</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.480000</v>
+        <v>1261.48</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.631000</v>
+        <v>-577.63099999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>21757.269367</v>
+        <v>21757.269367000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.043686</v>
+        <v>6.0436860000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.770000</v>
+        <v>1409.77</v>
       </c>
       <c r="BV14" s="1">
-        <v>-803.234000</v>
+        <v>-803.23400000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>21768.109929</v>
+        <v>21768.109928999998</v>
       </c>
       <c r="BY14" s="1">
         <v>6.046697</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.150000</v>
+        <v>1573.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1038.910000</v>
+        <v>-1038.9100000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>21780.236617</v>
+        <v>21780.236616999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.050066</v>
+        <v>6.0500660000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1985.010000</v>
+        <v>1985.01</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1589.610000</v>
+        <v>-1589.61</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>21608.076733</v>
+        <v>21608.076733000002</v>
       </c>
       <c r="B15" s="1">
-        <v>6.002244</v>
+        <v>6.0022440000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>899.547000</v>
+        <v>899.54700000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.012000</v>
+        <v>-195.012</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>21618.814126</v>
+        <v>21618.814126000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.005226</v>
+        <v>6.0052260000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>916.243000</v>
+        <v>916.24300000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.487000</v>
+        <v>-165.48699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>21629.285664</v>
+        <v>21629.285663999999</v>
       </c>
       <c r="L15" s="1">
-        <v>6.008135</v>
+        <v>6.0081350000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>938.937000</v>
+        <v>938.93700000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.767000</v>
+        <v>-118.767</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>21639.837554</v>
+        <v>21639.837554000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.011066</v>
+        <v>6.0110659999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>945.524000</v>
+        <v>945.524</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.493000</v>
+        <v>-103.49299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>21650.332901</v>
+        <v>21650.332901000002</v>
       </c>
       <c r="V15" s="1">
-        <v>6.013981</v>
+        <v>6.0139810000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>951.970000</v>
+        <v>951.97</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.890500</v>
+        <v>-89.890500000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>21660.773227</v>
+        <v>21660.773227000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.016881</v>
+        <v>6.0168809999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.128000</v>
+        <v>959.12800000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.482900</v>
+        <v>-80.482900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>21671.553279</v>
@@ -3912,255 +4328,255 @@
         <v>6.019876</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.129000</v>
+        <v>964.12900000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.229800</v>
+        <v>-80.229799999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>21682.099674</v>
+        <v>21682.099674000001</v>
       </c>
       <c r="AK15" s="1">
         <v>6.022805</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.188000</v>
+        <v>972.18799999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.241700</v>
+        <v>-88.241699999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>21692.909485</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.025808</v>
+        <v>6.0258079999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.512000</v>
+        <v>981.51199999999994</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.401000</v>
+        <v>-103.401</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>21703.636990</v>
+        <v>21703.636989999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.028788</v>
+        <v>6.0287879999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.060000</v>
+        <v>993.06</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.205000</v>
+        <v>-125.205</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>21714.273168</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.031743</v>
+        <v>6.0317429999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.130000</v>
+        <v>-144.13</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>21724.960498</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.034711</v>
+        <v>6.0347109999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.609000</v>
+        <v>-229.60900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>21736.059443</v>
+        <v>21736.059442999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.037794</v>
+        <v>6.0377939999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.040000</v>
+        <v>1129.04</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.348000</v>
+        <v>-366.34800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>21746.756165</v>
+        <v>21746.756164999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.040766</v>
+        <v>6.0407659999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.480000</v>
+        <v>1261.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.659000</v>
+        <v>-577.65899999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>21757.680582</v>
+        <v>21757.680582000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.043800</v>
+        <v>6.0438000000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-803.166000</v>
+        <v>-803.16600000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>21768.568761</v>
+        <v>21768.568760999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.046825</v>
+        <v>6.0468250000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.170000</v>
+        <v>1573.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1038.780000</v>
+        <v>-1038.78</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>21780.753448</v>
+        <v>21780.753447999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.050209</v>
+        <v>6.0502089999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1986.630000</v>
+        <v>1986.63</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1589.460000</v>
+        <v>-1589.46</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>21608.758270</v>
+        <v>21608.758269999998</v>
       </c>
       <c r="B16" s="1">
-        <v>6.002433</v>
+        <v>6.0024329999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>899.664000</v>
+        <v>899.66399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-195.085000</v>
+        <v>-195.08500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>21619.158845</v>
+        <v>21619.158845000002</v>
       </c>
       <c r="G16" s="1">
-        <v>6.005322</v>
+        <v>6.0053219999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>916.693000</v>
+        <v>916.69299999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.969000</v>
+        <v>-164.96899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>21629.631871</v>
+        <v>21629.631871000001</v>
       </c>
       <c r="L16" s="1">
-        <v>6.008231</v>
+        <v>6.0082310000000003</v>
       </c>
       <c r="M16" s="1">
-        <v>938.934000</v>
+        <v>938.93399999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.786000</v>
+        <v>-118.786</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>21640.188235</v>
+        <v>21640.188235000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.011163</v>
+        <v>6.0111629999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>945.486000</v>
+        <v>945.48599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.520000</v>
+        <v>-103.52</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>21650.987956</v>
+        <v>21650.987956000001</v>
       </c>
       <c r="V16" s="1">
-        <v>6.014163</v>
+        <v>6.0141629999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>951.934000</v>
+        <v>951.93399999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.884100</v>
+        <v>-89.884100000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>21661.420967</v>
+        <v>21661.420966999998</v>
       </c>
       <c r="AA16" s="1">
         <v>6.017061</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.135000</v>
+        <v>959.13499999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.566900</v>
+        <v>-80.566900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>21671.940648</v>
@@ -4169,255 +4585,255 @@
         <v>6.019984</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.170000</v>
+        <v>964.17</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.242600</v>
+        <v>-80.242599999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>21682.446907</v>
+        <v>21682.446907000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.022902</v>
+        <v>6.0229020000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.184000</v>
+        <v>972.18399999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.249600</v>
+        <v>-88.249600000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>21693.292891</v>
+        <v>21693.292891000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.025915</v>
+        <v>6.0259150000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.493000</v>
+        <v>981.49300000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.396000</v>
+        <v>-103.396</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>21704.000525</v>
+        <v>21704.000524999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.028889</v>
+        <v>6.0288890000000004</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.037000</v>
+        <v>993.03700000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.184000</v>
+        <v>-125.184</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>21714.688848</v>
+        <v>21714.688848000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.031858</v>
+        <v>6.0318579999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.147000</v>
+        <v>-144.14699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>21725.382568</v>
+        <v>21725.382568000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.034828</v>
+        <v>6.0348280000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.760000</v>
+        <v>1048.76</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.605000</v>
+        <v>-229.60499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>21736.418084</v>
+        <v>21736.418084000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.037894</v>
+        <v>6.0378939999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.357000</v>
+        <v>-366.35700000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>21747.152470</v>
+        <v>21747.152470000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.040876</v>
+        <v>6.0408759999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.470000</v>
+        <v>1261.47</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.678000</v>
+        <v>-577.678</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>21758.111649</v>
+        <v>21758.111648999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.043920</v>
+        <v>6.04392</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.990000</v>
+        <v>1409.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.062000</v>
+        <v>-803.06200000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>21769.017607</v>
+        <v>21769.017607000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.046949</v>
+        <v>6.0469489999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.090000</v>
+        <v>1573.09</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1038.970000</v>
+        <v>-1038.97</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>21781.273255</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.050354</v>
+        <v>6.0503539999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>1986.240000</v>
+        <v>1986.24</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1587.920000</v>
+        <v>-1587.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>21609.102458</v>
+        <v>21609.102458000001</v>
       </c>
       <c r="B17" s="1">
-        <v>6.002528</v>
+        <v>6.0025279999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>899.611000</v>
+        <v>899.61099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.893000</v>
+        <v>-194.893</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>21619.506541</v>
+        <v>21619.506540999999</v>
       </c>
       <c r="G17" s="1">
-        <v>6.005418</v>
+        <v>6.0054179999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>916.680000</v>
+        <v>916.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.256000</v>
+        <v>-165.256</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>21630.287584</v>
+        <v>21630.287584000002</v>
       </c>
       <c r="L17" s="1">
         <v>6.008413</v>
       </c>
       <c r="M17" s="1">
-        <v>938.808000</v>
+        <v>938.80799999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.651000</v>
+        <v>-118.651</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>21640.856337</v>
+        <v>21640.856337000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.011349</v>
+        <v>6.0113490000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>945.454000</v>
+        <v>945.45399999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.515000</v>
+        <v>-103.515</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>21651.361603</v>
+        <v>21651.361603000001</v>
       </c>
       <c r="V17" s="1">
-        <v>6.014267</v>
+        <v>6.0142670000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>951.919000</v>
+        <v>951.91899999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.919000</v>
+        <v>-89.918999999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>21661.834630</v>
+        <v>21661.834630000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.017176</v>
+        <v>6.0171760000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.205000</v>
+        <v>959.20500000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.540500</v>
+        <v>-80.540499999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>21672.285978</v>
@@ -4426,724 +4842,724 @@
         <v>6.020079</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.178000</v>
+        <v>964.178</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.288100</v>
+        <v>-80.2881</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>21682.795588</v>
+        <v>21682.795588000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.022999</v>
+        <v>6.0229990000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.173000</v>
+        <v>972.173</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.249700</v>
+        <v>-88.249700000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>21693.655501</v>
+        <v>21693.655501000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.026015</v>
+        <v>6.0260150000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.499000</v>
+        <v>981.49900000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.408000</v>
+        <v>-103.408</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>21704.428078</v>
+        <v>21704.428078000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.029008</v>
+        <v>6.0290080000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.041000</v>
+        <v>993.04100000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.200000</v>
+        <v>-125.2</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>21714.989887</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.031942</v>
+        <v>6.0319419999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.111000</v>
+        <v>-144.11099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>21725.684161</v>
+        <v>21725.684161000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.034912</v>
+        <v>6.0349120000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.607000</v>
+        <v>-229.607</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>21736.790546</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.037997</v>
+        <v>6.0379969999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.010000</v>
+        <v>1129.01</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.395000</v>
+        <v>-366.39499999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>21747.577044</v>
+        <v>21747.577044000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.040994</v>
+        <v>6.0409940000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.490000</v>
+        <v>1261.49</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.641000</v>
+        <v>-577.64099999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>21758.539622</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.044039</v>
+        <v>6.0440389999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.180000</v>
+        <v>1410.18</v>
       </c>
       <c r="BV17" s="1">
-        <v>-803.185000</v>
+        <v>-803.18499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>21769.437719</v>
+        <v>21769.437719000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.047066</v>
+        <v>6.0470660000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.250000</v>
+        <v>1573.25</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.030000</v>
+        <v>-1039.03</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>21781.790103</v>
+        <v>21781.790102999999</v>
       </c>
       <c r="CD17" s="1">
         <v>6.050497</v>
       </c>
       <c r="CE17" s="1">
-        <v>1984.990000</v>
+        <v>1984.99</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1588.200000</v>
+        <v>-1588.2</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>21609.445196</v>
+        <v>21609.445196000001</v>
       </c>
       <c r="B18" s="1">
         <v>6.002624</v>
       </c>
       <c r="C18" s="1">
-        <v>899.729000</v>
+        <v>899.72900000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.007000</v>
+        <v>-195.00700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>21620.154844</v>
+        <v>21620.154844000001</v>
       </c>
       <c r="G18" s="1">
-        <v>6.005599</v>
+        <v>6.0055990000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.544000</v>
+        <v>916.54399999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.330000</v>
+        <v>-165.33</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>21630.670035</v>
+        <v>21630.670034999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.008519</v>
+        <v>6.0085189999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>938.974000</v>
+        <v>938.97400000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.644000</v>
+        <v>-118.64400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>21641.233792</v>
+        <v>21641.233791999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.011454</v>
+        <v>6.0114539999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>945.463000</v>
+        <v>945.46299999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.486000</v>
+        <v>-103.486</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>21651.707315</v>
       </c>
       <c r="V18" s="1">
-        <v>6.014363</v>
+        <v>6.0143630000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>951.927000</v>
+        <v>951.92700000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.839800</v>
+        <v>-89.839799999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>21662.170420</v>
+        <v>21662.170419999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.017270</v>
+        <v>6.0172699999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.127000</v>
+        <v>959.12699999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.628600</v>
+        <v>-80.628600000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>21672.627111</v>
+        <v>21672.627111000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.020174</v>
+        <v>6.0201739999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.151000</v>
+        <v>964.15099999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.240600</v>
+        <v>-80.240600000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>21683.214682</v>
+        <v>21683.214682000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.023115</v>
+        <v>6.0231149999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.168000</v>
+        <v>972.16800000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.254500</v>
+        <v>-88.254499999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>21694.070655</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.026131</v>
+        <v>6.0261310000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.493000</v>
+        <v>981.49300000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.403000</v>
+        <v>-103.40300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>21704.730140</v>
+        <v>21704.73014</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.029092</v>
+        <v>6.0290920000000003</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.045000</v>
+        <v>993.04499999999996</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.194000</v>
+        <v>-125.194</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>21715.347038</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.032041</v>
+        <v>6.0320410000000004</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.142000</v>
+        <v>-144.142</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>21726.043761</v>
+        <v>21726.043761000001</v>
       </c>
       <c r="BE18" s="1">
         <v>6.035012</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.740000</v>
+        <v>1048.74</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.608000</v>
+        <v>-229.608</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>21737.169985</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.038103</v>
+        <v>6.0381030000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.411000</v>
+        <v>-366.411</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>21748.390978</v>
+        <v>21748.390977999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.041220</v>
+        <v>6.04122</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.460000</v>
+        <v>1261.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.677000</v>
+        <v>-577.67700000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>21758.952788</v>
+        <v>21758.952787999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.044154</v>
+        <v>6.0441539999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1410.270000</v>
+        <v>1410.27</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.102000</v>
+        <v>-803.10199999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>21769.860567</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.047183</v>
+        <v>6.0471830000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.230000</v>
+        <v>1573.23</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1038.900000</v>
+        <v>-1038.9000000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>21782.309433</v>
+        <v>21782.309432999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.050642</v>
+        <v>6.0506419999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.300000</v>
+        <v>1985.3</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1589.810000</v>
+        <v>-1589.81</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>21610.098427</v>
+        <v>21610.098427000001</v>
       </c>
       <c r="B19" s="1">
-        <v>6.002805</v>
+        <v>6.0028050000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>899.484000</v>
+        <v>899.48400000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.905000</v>
+        <v>-194.905</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>21620.538715</v>
+        <v>21620.538714999999</v>
       </c>
       <c r="G19" s="1">
-        <v>6.005705</v>
+        <v>6.0057049999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>916.355000</v>
+        <v>916.35500000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.577000</v>
+        <v>-165.577</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>21631.014222</v>
+        <v>21631.014222000002</v>
       </c>
       <c r="L19" s="1">
-        <v>6.008615</v>
+        <v>6.0086149999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>938.868000</v>
+        <v>938.86800000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.587000</v>
+        <v>-118.587</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>21641.582480</v>
+        <v>21641.582480000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.011551</v>
+        <v>6.0115509999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>945.490000</v>
+        <v>945.49</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.471000</v>
+        <v>-103.471</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>21652.049058</v>
+        <v>21652.049058000001</v>
       </c>
       <c r="V19" s="1">
-        <v>6.014458</v>
+        <v>6.0144580000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>951.935000</v>
+        <v>951.93499999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.888400</v>
+        <v>-89.888400000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>21662.600948</v>
+        <v>21662.600947999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.017389</v>
+        <v>6.0173889999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.221000</v>
+        <v>959.221</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.548900</v>
+        <v>-80.548900000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>21673.050204</v>
+        <v>21673.050203999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.020292</v>
+        <v>6.0202920000000004</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.170000</v>
+        <v>964.17</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.272800</v>
+        <v>-80.272800000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>21683.505832</v>
+        <v>21683.505831999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.023196</v>
+        <v>6.0231960000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.176000</v>
+        <v>972.17600000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.244300</v>
+        <v>-88.244299999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>21694.374171</v>
+        <v>21694.374170999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.026215</v>
+        <v>6.0262149999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.473000</v>
+        <v>981.47299999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.393000</v>
+        <v>-103.393</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>21705.096684</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.029194</v>
+        <v>6.0291940000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.037000</v>
+        <v>993.03700000000003</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.217000</v>
+        <v>-125.217</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>21715.707606</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.032141</v>
+        <v>6.0321410000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.135000</v>
+        <v>-144.13499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>21726.406801</v>
+        <v>21726.406801000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.035113</v>
+        <v>6.0351129999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.596000</v>
+        <v>-229.596</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>21737.918480</v>
+        <v>21737.91848</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.038311</v>
+        <v>6.0383110000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.050000</v>
+        <v>1129.05</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.359000</v>
+        <v>-366.35899999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>21748.807618</v>
+        <v>21748.807617999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.041335</v>
+        <v>6.0413350000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.470000</v>
+        <v>1261.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.658000</v>
+        <v>-577.65800000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>21759.382821</v>
+        <v>21759.382820999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.044273</v>
+        <v>6.0442729999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1410.380000</v>
+        <v>1410.38</v>
       </c>
       <c r="BV19" s="1">
-        <v>-803.289000</v>
+        <v>-803.28899999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>21770.287366</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.047302</v>
+        <v>6.0473020000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.130000</v>
+        <v>1573.13</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>21783.133749</v>
+        <v>21783.133749000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.050870</v>
+        <v>6.0508699999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1986.910000</v>
+        <v>1986.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1589.350000</v>
+        <v>-1589.35</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>21610.457529</v>
+        <v>21610.457528999999</v>
       </c>
       <c r="B20" s="1">
-        <v>6.002905</v>
+        <v>6.0029050000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>899.511000</v>
+        <v>899.51099999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.029000</v>
+        <v>-195.029</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>21620.880986</v>
       </c>
       <c r="G20" s="1">
-        <v>6.005800</v>
+        <v>6.0057999999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>916.557000</v>
+        <v>916.55700000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.728000</v>
+        <v>-165.72800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>21631.360957</v>
+        <v>21631.360957000001</v>
       </c>
       <c r="L20" s="1">
-        <v>6.008711</v>
+        <v>6.0087109999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>938.899000</v>
+        <v>938.899</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.622000</v>
+        <v>-118.622</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>21641.929183</v>
@@ -5152,225 +5568,225 @@
         <v>6.011647</v>
       </c>
       <c r="R20" s="1">
-        <v>945.488000</v>
+        <v>945.48800000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.517000</v>
+        <v>-103.517</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>21652.462226</v>
       </c>
       <c r="V20" s="1">
-        <v>6.014573</v>
+        <v>6.0145730000000004</v>
       </c>
       <c r="W20" s="1">
-        <v>951.935000</v>
+        <v>951.93499999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.914000</v>
+        <v>-89.914000000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>21662.865355</v>
+        <v>21662.865355000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.017463</v>
+        <v>6.0174630000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.185000</v>
+        <v>959.18499999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.622400</v>
+        <v>-80.622399999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>21673.339861</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.020372</v>
+        <v>6.0203720000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.158000</v>
+        <v>964.15800000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.276400</v>
+        <v>-80.276399999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>21683.851562</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.023292</v>
+        <v>6.0232919999999996</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.206000</v>
+        <v>972.20600000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.236000</v>
+        <v>-88.236000000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>21694.734794</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.026315</v>
+        <v>6.0263150000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.490000</v>
+        <v>981.49</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.409000</v>
+        <v>-103.40900000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>21705.458267</v>
+        <v>21705.458267000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.029294</v>
+        <v>6.0292940000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.065000</v>
+        <v>993.06500000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.223000</v>
+        <v>-125.223</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>21716.431757</v>
+        <v>21716.431756999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.032342</v>
+        <v>6.0323419999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.840000</v>
+        <v>1002.84</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.130000</v>
+        <v>-144.13</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>21727.129966</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.035314</v>
+        <v>6.0353139999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.603000</v>
+        <v>-229.60300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>21738.295409</v>
+        <v>21738.295408999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.038415</v>
+        <v>6.0384149999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.070000</v>
+        <v>1129.07</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.419000</v>
+        <v>-366.41899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>21749.205905</v>
+        <v>21749.205904999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.041446</v>
+        <v>6.0414459999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.490000</v>
+        <v>1261.49</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.618000</v>
+        <v>-577.61800000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>21759.809379</v>
+        <v>21759.809378999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.044391</v>
+        <v>6.0443910000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1410.330000</v>
+        <v>1410.33</v>
       </c>
       <c r="BV20" s="1">
-        <v>-803.390000</v>
+        <v>-803.39</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>21771.006070</v>
+        <v>21771.006069999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.047502</v>
+        <v>6.0475019999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.250000</v>
+        <v>1573.25</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.090000</v>
+        <v>-1039.0899999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>21783.343060</v>
+        <v>21783.343059999999</v>
       </c>
       <c r="CD20" s="1">
         <v>6.050929</v>
       </c>
       <c r="CE20" s="1">
-        <v>1986.310000</v>
+        <v>1986.31</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1587.540000</v>
+        <v>-1587.54</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>21610.813658</v>
+        <v>21610.813657999999</v>
       </c>
       <c r="B21" s="1">
-        <v>6.003004</v>
+        <v>6.0030039999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>899.558000</v>
+        <v>899.55799999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.874000</v>
+        <v>-194.874</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>21621.227659</v>
@@ -5379,13 +5795,13 @@
         <v>6.005897</v>
       </c>
       <c r="H21" s="1">
-        <v>916.623000</v>
+        <v>916.62300000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.474000</v>
+        <v>-165.47399999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>21631.774621</v>
@@ -5394,315 +5810,315 @@
         <v>6.008826</v>
       </c>
       <c r="M21" s="1">
-        <v>939.020000</v>
+        <v>939.02</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.569000</v>
+        <v>-118.569</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>21642.339375</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.011761</v>
+        <v>6.0117609999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>945.511000</v>
+        <v>945.51099999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.493000</v>
+        <v>-103.49299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>21652.759360</v>
+        <v>21652.75936</v>
       </c>
       <c r="V21" s="1">
-        <v>6.014655</v>
+        <v>6.0146550000000003</v>
       </c>
       <c r="W21" s="1">
-        <v>951.962000</v>
+        <v>951.96199999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.864000</v>
+        <v>-89.864000000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>21663.215523</v>
+        <v>21663.215522999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.017560</v>
+        <v>6.0175599999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.153000</v>
+        <v>959.15300000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.583600</v>
+        <v>-80.583600000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>21673.681573</v>
+        <v>21673.681573000002</v>
       </c>
       <c r="AF21" s="1">
         <v>6.020467</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.143000</v>
+        <v>964.14300000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.181000</v>
+        <v>-80.180999999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>21684.201753</v>
+        <v>21684.201753000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.023389</v>
+        <v>6.0233889999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.173000</v>
+        <v>972.173</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.236800</v>
+        <v>-88.236800000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>21695.095354</v>
+        <v>21695.095354000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.026415</v>
+        <v>6.0264150000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.484000</v>
+        <v>981.48400000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.401000</v>
+        <v>-103.401</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>21706.196810</v>
+        <v>21706.196810000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.029499</v>
+        <v>6.0294990000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.060000</v>
+        <v>993.06</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.231000</v>
+        <v>-125.23099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>21716.805244</v>
+        <v>21716.805243999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.032446</v>
+        <v>6.0324460000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.840000</v>
+        <v>1002.84</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.142000</v>
+        <v>-144.142</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>21727.517839</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.035422</v>
+        <v>6.0354219999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.760000</v>
+        <v>1048.76</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.601000</v>
+        <v>-229.601</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>21738.670385</v>
+        <v>21738.670385000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.038520</v>
+        <v>6.0385200000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.060000</v>
+        <v>1129.06</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.345000</v>
+        <v>-366.34500000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>21749.929568</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.041647</v>
+        <v>6.0416470000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.665000</v>
+        <v>-577.66499999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>21760.523123</v>
+        <v>21760.523122999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.044590</v>
+        <v>6.0445900000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.420000</v>
+        <v>1410.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-803.578000</v>
+        <v>-803.57799999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>21771.148916</v>
+        <v>21771.148915999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.047541</v>
+        <v>6.0475409999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.240000</v>
+        <v>1573.24</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>21783.862867</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.051073</v>
+        <v>6.0510729999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>1986.050000</v>
+        <v>1986.05</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1587.700000</v>
+        <v>-1587.7</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>21611.220376</v>
+        <v>21611.220376000001</v>
       </c>
       <c r="B22" s="1">
-        <v>6.003117</v>
+        <v>6.0031169999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>899.615000</v>
+        <v>899.61500000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.827000</v>
+        <v>-194.827</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>21621.644300</v>
+        <v>21621.6443</v>
       </c>
       <c r="G22" s="1">
-        <v>6.006012</v>
+        <v>6.0060120000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>916.480000</v>
+        <v>916.48</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.961000</v>
+        <v>-164.96100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>21632.075693</v>
+        <v>21632.075692999999</v>
       </c>
       <c r="L22" s="1">
-        <v>6.008910</v>
+        <v>6.0089100000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>939.076000</v>
+        <v>939.07600000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.845000</v>
+        <v>-118.845</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>21642.640448</v>
+        <v>21642.640447999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.011845</v>
+        <v>6.0118450000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>945.505000</v>
+        <v>945.505</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.525000</v>
+        <v>-103.52500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>21653.106032</v>
       </c>
       <c r="V22" s="1">
-        <v>6.014752</v>
+        <v>6.0147519999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>951.928000</v>
+        <v>951.928</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.852900</v>
+        <v>-89.852900000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>21663.564178</v>
+        <v>21663.564178000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.017657</v>
+        <v>6.0176569999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.164000</v>
+        <v>959.16399999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.495600</v>
+        <v>-80.495599999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>21674.023846</v>
@@ -5711,390 +6127,390 @@
         <v>6.020562</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.179000</v>
+        <v>964.17899999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.292500</v>
+        <v>-80.292500000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>21684.899592</v>
+        <v>21684.899592000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.023583</v>
+        <v>6.0235830000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.175000</v>
+        <v>972.17499999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.229000</v>
+        <v>-88.228999999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>21695.812600</v>
+        <v>21695.812600000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.026615</v>
+        <v>6.0266149999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.489000</v>
+        <v>981.48900000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.409000</v>
+        <v>-103.40900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>21706.582206</v>
+        <v>21706.582205999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.029606</v>
+        <v>6.0296060000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.050000</v>
+        <v>993.05</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.201000</v>
+        <v>-125.20099999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>21717.189147</v>
+        <v>21717.189147000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.032553</v>
+        <v>6.0325530000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.123000</v>
+        <v>-144.12299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>21727.877439</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.035522</v>
+        <v>6.0355220000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.599000</v>
+        <v>-229.59899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>21739.348446</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.038708</v>
+        <v>6.0387079999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.010000</v>
+        <v>1129.01</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.357000</v>
+        <v>-366.35700000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>21750.043650</v>
+        <v>21750.04365</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.041679</v>
+        <v>6.0416790000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.643000</v>
+        <v>-577.64300000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>21760.654562</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.044626</v>
+        <v>6.0446260000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.370000</v>
+        <v>1410.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-803.705000</v>
+        <v>-803.70500000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>21771.571012</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.047659</v>
+        <v>6.0476590000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.330000</v>
+        <v>1573.33</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>21784.412435</v>
+        <v>21784.412434999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.051226</v>
+        <v>6.0512259999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.840000</v>
+        <v>1986.84</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1588.650000</v>
+        <v>-1588.65</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>21611.514503</v>
+        <v>21611.514502999999</v>
       </c>
       <c r="B23" s="1">
-        <v>6.003198</v>
+        <v>6.0031980000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>899.533000</v>
+        <v>899.53300000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.979000</v>
+        <v>-194.97900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>21621.923050</v>
+        <v>21621.923050000001</v>
       </c>
       <c r="G23" s="1">
-        <v>6.006090</v>
+        <v>6.0060900000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>916.657000</v>
+        <v>916.65700000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.096000</v>
+        <v>-165.096</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>21632.419420</v>
+        <v>21632.419419999998</v>
       </c>
       <c r="L23" s="1">
-        <v>6.009005</v>
+        <v>6.0090050000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>939.195000</v>
+        <v>939.19500000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.771000</v>
+        <v>-118.771</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>21642.988541</v>
+        <v>21642.988540999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.011941</v>
+        <v>6.0119410000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>945.471000</v>
+        <v>945.471</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.517000</v>
+        <v>-103.517</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>21653.450288</v>
       </c>
       <c r="V23" s="1">
-        <v>6.014847</v>
+        <v>6.0148469999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>951.940000</v>
+        <v>951.94</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.845000</v>
+        <v>-89.844999999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>21664.260099</v>
+        <v>21664.260098999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.017850</v>
+        <v>6.0178500000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.240000</v>
+        <v>959.24</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.547200</v>
+        <v>-80.547200000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>21674.713748</v>
+        <v>21674.713747999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.020754</v>
+        <v>6.0207540000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.145000</v>
+        <v>964.14499999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.294000</v>
+        <v>-80.293999999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>21685.247818</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.023680</v>
+        <v>6.0236799999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.192000</v>
+        <v>972.19200000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.219300</v>
+        <v>-88.219300000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>21696.175640</v>
+        <v>21696.175640000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.026715</v>
+        <v>6.0267150000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.490000</v>
+        <v>981.49</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.417000</v>
+        <v>-103.417</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>21706.945273</v>
+        <v>21706.945273000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.029707</v>
+        <v>6.0297070000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.069000</v>
+        <v>993.06899999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.191000</v>
+        <v>-125.191</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>21717.842412</v>
+        <v>21717.842412000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.032734</v>
+        <v>6.0327339999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.132000</v>
+        <v>-144.13200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>21728.546540</v>
+        <v>21728.546539999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.035707</v>
+        <v>6.0357070000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.770000</v>
+        <v>1048.77</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.580000</v>
+        <v>-229.58</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>21739.796543</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.038832</v>
+        <v>6.0388320000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.100000</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.390000</v>
+        <v>-366.39</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>21750.444913</v>
+        <v>21750.444912999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.041790</v>
+        <v>6.0417899999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.460000</v>
+        <v>1261.46</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.657000</v>
+        <v>-577.65700000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>21761.090546</v>
+        <v>21761.090545999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.044747</v>
+        <v>6.0447470000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.250000</v>
+        <v>1410.25</v>
       </c>
       <c r="BV23" s="1">
-        <v>-803.834000</v>
+        <v>-803.83399999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>21771.997108</v>
@@ -6103,801 +6519,802 @@
         <v>6.047777</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.200000</v>
+        <v>1573.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1038.960000</v>
+        <v>-1038.96</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>21784.942658</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.051373</v>
+        <v>6.0513729999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.330000</v>
+        <v>1985.33</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1587.530000</v>
+        <v>-1587.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>21611.856247</v>
       </c>
       <c r="B24" s="1">
-        <v>6.003293</v>
+        <v>6.0032930000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>899.564000</v>
+        <v>899.56399999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.968000</v>
+        <v>-194.96799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>21622.264825</v>
+        <v>21622.264824999998</v>
       </c>
       <c r="G24" s="1">
-        <v>6.006185</v>
+        <v>6.0061850000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>916.273000</v>
+        <v>916.27300000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.491000</v>
+        <v>-165.49100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>21632.764605</v>
       </c>
       <c r="L24" s="1">
-        <v>6.009101</v>
+        <v>6.0091010000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>938.740000</v>
+        <v>938.74</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.752000</v>
+        <v>-118.752</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>21643.336830</v>
+        <v>21643.33683</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.012038</v>
+        <v>6.0120380000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>945.493000</v>
+        <v>945.49300000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.487000</v>
+        <v>-103.48699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>21654.132751</v>
+        <v>21654.132751000001</v>
       </c>
       <c r="V24" s="1">
-        <v>6.015037</v>
+        <v>6.0150370000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>951.999000</v>
+        <v>951.99900000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.882600</v>
+        <v>-89.882599999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>21664.610241</v>
+        <v>21664.610240999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.017947</v>
+        <v>6.0179470000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.208000</v>
+        <v>959.20799999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.548600</v>
+        <v>-80.548599999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>21675.057971</v>
+        <v>21675.057970999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.020849</v>
+        <v>6.0208490000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.103000</v>
+        <v>964.10299999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.288800</v>
+        <v>-80.288799999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>21685.595014</v>
+        <v>21685.595013999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.023776</v>
+        <v>6.0237759999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.170000</v>
+        <v>972.17</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.217000</v>
+        <v>-88.216999999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>21696.851223</v>
+        <v>21696.851223000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.026903</v>
+        <v>6.0269029999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.487000</v>
+        <v>981.48699999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.389000</v>
+        <v>-103.389</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>21707.606974</v>
+        <v>21707.606973999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.029891</v>
+        <v>6.0298910000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.061000</v>
+        <v>993.06100000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.187000</v>
+        <v>-125.187</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>21718.271420</v>
+        <v>21718.271420000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.032853</v>
+        <v>6.0328530000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.121000</v>
+        <v>-144.12100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>21729.001372</v>
+        <v>21729.001371999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.035834</v>
+        <v>6.0358340000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.760000</v>
+        <v>1048.76</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.600000</v>
+        <v>-229.6</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>21740.171774</v>
+        <v>21740.171773999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.038937</v>
+        <v>6.0389369999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.020000</v>
+        <v>1129.02</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.355000</v>
+        <v>-366.35500000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>21750.844224</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.041901</v>
+        <v>6.0419010000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.460000</v>
+        <v>1261.46</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.654000</v>
+        <v>-577.654</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>21761.519089</v>
+        <v>21761.519089000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.044866</v>
+        <v>6.0448659999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.060000</v>
+        <v>1410.06</v>
       </c>
       <c r="BV24" s="1">
-        <v>-803.789000</v>
+        <v>-803.78899999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>21772.413261</v>
+        <v>21772.413261000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.047893</v>
+        <v>6.0478930000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.210000</v>
+        <v>1573.21</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.050000</v>
+        <v>-1039.05</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>21785.459282</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.051516</v>
+        <v>6.0515160000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>1984.800000</v>
+        <v>1984.8</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1589.100000</v>
+        <v>-1589.1</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>21612.196007</v>
+        <v>21612.196006999999</v>
       </c>
       <c r="B25" s="1">
-        <v>6.003388</v>
+        <v>6.0033880000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>899.512000</v>
+        <v>899.51199999999994</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.111000</v>
+        <v>-195.11099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>21622.614004</v>
+        <v>21622.614003999999</v>
       </c>
       <c r="G25" s="1">
-        <v>6.006282</v>
+        <v>6.0062819999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>916.227000</v>
+        <v>916.22699999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.729000</v>
+        <v>-165.72900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>21633.459034</v>
       </c>
       <c r="L25" s="1">
-        <v>6.009294</v>
+        <v>6.0092939999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>938.954000</v>
+        <v>938.95399999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.538000</v>
+        <v>-118.538</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>21644.035197</v>
+        <v>21644.035197000001</v>
       </c>
       <c r="Q25" s="1">
         <v>6.012232</v>
       </c>
       <c r="R25" s="1">
-        <v>945.536000</v>
+        <v>945.53599999999994</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.476000</v>
+        <v>-103.476</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>21654.476479</v>
+        <v>21654.476479000001</v>
       </c>
       <c r="V25" s="1">
-        <v>6.015132</v>
+        <v>6.0151320000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>951.917000</v>
+        <v>951.91700000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.914900</v>
+        <v>-89.914900000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>21664.959953</v>
+        <v>21664.959953000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.018044</v>
+        <v>6.0180439999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.210000</v>
+        <v>959.21</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.572200</v>
+        <v>-80.572199999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>21675.399715</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.020944</v>
+        <v>6.0209440000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.245000</v>
+        <v>964.245</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.185800</v>
+        <v>-80.1858</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>21686.254165</v>
+        <v>21686.254164999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.023959</v>
+        <v>6.0239589999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.172000</v>
+        <v>972.17200000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.237700</v>
+        <v>-88.237700000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>21697.273782</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.027020</v>
+        <v>6.0270200000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.530000</v>
+        <v>981.53</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.400000</v>
+        <v>-103.4</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>21708.069705</v>
+        <v>21708.069705000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.030019</v>
+        <v>6.0300190000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.057000</v>
+        <v>993.05700000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.218000</v>
+        <v>-125.218</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>21718.647892</v>
+        <v>21718.647892000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.032958</v>
+        <v>6.0329579999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.124000</v>
+        <v>-144.124</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>21729.361469</v>
+        <v>21729.361468999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.035934</v>
+        <v>6.0359340000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.730000</v>
+        <v>1048.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.598000</v>
+        <v>-229.59800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>21740.547741</v>
+        <v>21740.547740999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.039041</v>
+        <v>6.0390410000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.020000</v>
+        <v>1129.02</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.422000</v>
+        <v>-366.42200000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>21751.264303</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.042018</v>
+        <v>6.0420179999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.460000</v>
+        <v>1261.46</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.670000</v>
+        <v>-577.66999999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>21761.929779</v>
+        <v>21761.929778999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.044980</v>
+        <v>6.0449799999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="BV25" s="1">
-        <v>-803.884000</v>
+        <v>-803.88400000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>21772.862100</v>
+        <v>21772.862099999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.048017</v>
+        <v>6.0480169999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.210000</v>
+        <v>1573.21</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1039.020000</v>
+        <v>-1039.02</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>21785.976817</v>
+        <v>21785.976816999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.051660</v>
+        <v>6.05166</v>
       </c>
       <c r="CE25" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1589.720000</v>
+        <v>-1589.72</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>21612.882470</v>
+        <v>21612.88247</v>
       </c>
       <c r="B26" s="1">
-        <v>6.003578</v>
+        <v>6.0035780000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>899.626000</v>
+        <v>899.62599999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.929000</v>
+        <v>-194.929</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>21623.303448</v>
+        <v>21623.303447999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.006473</v>
+        <v>6.0064729999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>916.599000</v>
+        <v>916.59900000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.551000</v>
+        <v>-165.55099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>21633.803760</v>
+        <v>21633.803759999999</v>
       </c>
       <c r="L26" s="1">
-        <v>6.009390</v>
+        <v>6.0093899999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>938.804000</v>
+        <v>938.80399999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.733000</v>
+        <v>-118.733</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>21644.381900</v>
+        <v>21644.3819</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.012328</v>
+        <v>6.0123280000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>945.514000</v>
+        <v>945.51400000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.501000</v>
+        <v>-103.501</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>21654.820930</v>
+        <v>21654.820930000002</v>
       </c>
       <c r="V26" s="1">
-        <v>6.015228</v>
+        <v>6.0152279999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>951.967000</v>
+        <v>951.96699999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.870300</v>
+        <v>-89.8703</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>21665.628032</v>
+        <v>21665.628032000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.018230</v>
+        <v>6.01823</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.252000</v>
+        <v>959.25199999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.588300</v>
+        <v>-80.588300000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>21676.043560</v>
+        <v>21676.043559999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.021123</v>
+        <v>6.0211230000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.155000</v>
+        <v>964.15499999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.273800</v>
+        <v>-80.273799999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>21686.639060</v>
+        <v>21686.639060000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.024066</v>
+        <v>6.0240660000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.183000</v>
+        <v>972.18299999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.246100</v>
+        <v>-88.246099999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>21697.633382</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.027120</v>
+        <v>6.02712</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.497000</v>
+        <v>981.49699999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.383000</v>
+        <v>-103.383</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>21708.436745</v>
+        <v>21708.436744999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.030121</v>
+        <v>6.0301210000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.041000</v>
+        <v>993.04100000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.219000</v>
+        <v>-125.21899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>21719.033806</v>
+        <v>21719.033805999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.033065</v>
+        <v>6.0330649999999997</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.141000</v>
+        <v>-144.14099999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>21729.720075</v>
+        <v>21729.720075000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.036033</v>
+        <v>6.0360329999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.750000</v>
+        <v>1048.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.603000</v>
+        <v>-229.60300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>21740.954492</v>
+        <v>21740.954492000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.039154</v>
+        <v>6.0391539999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.030000</v>
+        <v>1129.03</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.332000</v>
+        <v>-366.33199999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>21751.659648</v>
+        <v>21751.659648000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.042128</v>
+        <v>6.0421279999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.642000</v>
+        <v>-577.64200000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>21762.361304</v>
+        <v>21762.361303999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.045100</v>
+        <v>6.0450999999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.800000</v>
+        <v>1409.8</v>
       </c>
       <c r="BV26" s="1">
-        <v>-803.760000</v>
+        <v>-803.76</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>21773.281752</v>
+        <v>21773.281751999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.048134</v>
+        <v>6.0481340000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.230000</v>
+        <v>1573.23</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1038.930000</v>
+        <v>-1038.93</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>21786.497120</v>
+        <v>21786.49712</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.051805</v>
+        <v>6.0518049999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1587.920000</v>
+        <v>-1587.92</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>